--- a/Data_3bus.xlsx
+++ b/Data_3bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\OPF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AE8F7-B3D6-40BA-A98E-3F768D897446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C021314-9057-4534-B973-3BE074595E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2830" windowWidth="14400" windowHeight="7370" activeTab="2" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Node data" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Node data</t>
   </si>
@@ -50,12 +50,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>GENCAP</t>
-  </si>
-  <si>
-    <t>GENMIN</t>
-  </si>
-  <si>
     <t>GENCOST</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
@@ -243,6 +234,27 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>CAP FROM</t>
+  </si>
+  <si>
+    <t>CAP TO</t>
+  </si>
+  <si>
+    <t>VOLTAGE</t>
+  </si>
+  <si>
+    <t>P_MIN</t>
+  </si>
+  <si>
+    <t>P_MAX</t>
+  </si>
+  <si>
+    <t>Q_MIN</t>
+  </si>
+  <si>
+    <t>Q_MAX</t>
   </si>
 </sst>
 </file>
@@ -356,18 +368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -376,10 +379,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,116 +711,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6C254-8727-469B-84A8-B23DD509C36A}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>400</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-400</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-200</v>
+      </c>
+      <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="I3" s="8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>208</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="I4" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>25</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -818,101 +866,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E222ED-9C46-4E77-9318-E5530826F65A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>150</v>
+      </c>
+      <c r="G4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="G5" s="1">
         <v>150</v>
       </c>
     </row>
@@ -928,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C8C65F-8056-4651-93CD-68060AB1EE88}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -939,212 +1007,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data_3bus.xlsx
+++ b/Data_3bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\OPF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C021314-9057-4534-B973-3BE074595E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC1C35-A175-4C86-9135-B630ECB42896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Node data" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Demand variability" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Node data</t>
   </si>
@@ -242,9 +243,6 @@
     <t>CAP TO</t>
   </si>
   <si>
-    <t>VOLTAGE</t>
-  </si>
-  <si>
     <t>P_MIN</t>
   </si>
   <si>
@@ -255,6 +253,15 @@
   </si>
   <si>
     <t>Q_MAX</t>
+  </si>
+  <si>
+    <t>V_MIN</t>
+  </si>
+  <si>
+    <t>V_MAX</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -379,6 +386,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,12 +402,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6C254-8727-469B-84A8-B23DD509C36A}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,18 +735,18 @@
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -750,25 +757,28 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -787,17 +797,20 @@
       <c r="F3" s="3">
         <v>200</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>-200</v>
       </c>
       <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="8">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -822,11 +835,14 @@
       <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -851,8 +867,11 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
+      <c r="I5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +888,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,14 +902,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -997,23 +1016,23 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">

--- a/Data_3bus.xlsx
+++ b/Data_3bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\OPF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC1C35-A175-4C86-9135-B630ECB42896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3B1AD-0AD4-4128-BB30-916F2F7E3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Demand variability" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,12 +53,6 @@
     <t>GENCOST</t>
   </si>
   <si>
-    <t>DEMAND - P</t>
-  </si>
-  <si>
-    <t>DEMAND - Q</t>
-  </si>
-  <si>
     <t>Line parameters</t>
   </si>
   <si>
@@ -262,6 +255,12 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>DEMAND_P</t>
+  </si>
+  <si>
+    <t>DEMAND_Q</t>
   </si>
 </sst>
 </file>
@@ -721,7 +720,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,34 +747,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -804,9 +803,9 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="4">
+        <v>72</v>
+      </c>
+      <c r="J3" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -836,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1">
         <v>1.1000000000000001</v>
@@ -868,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1">
         <v>1.1000000000000001</v>
@@ -903,7 +902,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -922,16 +921,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -945,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>150</v>
@@ -968,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>150</v>
@@ -991,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>150</v>
@@ -1016,7 +1015,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1036,151 +1035,151 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1188,50 +1187,50 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data_3bus.xlsx
+++ b/Data_3bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\OPF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3B1AD-0AD4-4128-BB30-916F2F7E3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A740D-E29D-490B-9CF3-2291592B1B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Node data" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Node data</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>DEMAND_Q</t>
+  </si>
+  <si>
+    <t>D_MIN</t>
+  </si>
+  <si>
+    <t>D_MAX</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -370,11 +376,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +406,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6C254-8727-469B-84A8-B23DD509C36A}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,18 +763,18 @@
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -776,8 +805,14 @@
       <c r="J2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -808,8 +843,14 @@
       <c r="J3" s="5">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="5">
+        <v>-1.571</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -840,8 +881,14 @@
       <c r="J4" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="7">
+        <v>-1.571</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -871,6 +918,12 @@
       </c>
       <c r="J5" s="1">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-1.571</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1.571</v>
       </c>
     </row>
   </sheetData>
@@ -886,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E222ED-9C46-4E77-9318-E5530826F65A}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,14 +954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1025,13 +1078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">

--- a/Data_3bus.xlsx
+++ b/Data_3bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakonsol\PycharmProjects\First_Project\OPF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A740D-E29D-490B-9CF3-2291592B1B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A6C73-2C98-4A0E-8752-3C28A53293E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12F1BD29-A7C3-4016-A696-A3E3AF7A56D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Node data" sheetId="3" r:id="rId1"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6C254-8727-469B-84A8-B23DD509C36A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E222ED-9C46-4E77-9318-E5530826F65A}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
